--- a/MBB/CSTC.xlsx
+++ b/MBB/CSTC.xlsx
@@ -1634,7 +1634,7 @@
         <v>3</v>
       </c>
       <c r="AL7" t="n">
-        <v>400</v>
+        <v>4</v>
       </c>
       <c r="AM7" t="n">
         <v>0</v>
@@ -1688,13 +1688,13 @@
         <v>2</v>
       </c>
       <c r="BD7" t="n">
-        <v>200</v>
+        <v>2</v>
       </c>
       <c r="BE7" t="n">
-        <v>200</v>
+        <v>2</v>
       </c>
       <c r="BF7" t="n">
-        <v>200</v>
+        <v>2</v>
       </c>
       <c r="BG7" t="n">
         <v>0</v>
@@ -2649,7 +2649,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="BG13" t="n">
-        <v>0.79</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="14">
@@ -3797,7 +3797,7 @@
         <v>28.45</v>
       </c>
       <c r="BG21" t="n">
-        <v>11.47</v>
+        <v>30.45</v>
       </c>
     </row>
     <row r="22">
@@ -4143,7 +4143,7 @@
         <v>17.03</v>
       </c>
       <c r="BG23" t="n">
-        <v>0</v>
+        <v>15.42</v>
       </c>
     </row>
     <row r="24">
@@ -4324,7 +4324,7 @@
         <v>29.61</v>
       </c>
       <c r="BG24" t="n">
-        <v>10.33</v>
+        <v>30.59</v>
       </c>
     </row>
     <row r="25">
@@ -4505,7 +4505,7 @@
         <v>29.31</v>
       </c>
       <c r="BG25" t="n">
-        <v>8.4</v>
+        <v>26.62</v>
       </c>
     </row>
     <row r="26">
@@ -6431,7 +6431,7 @@
         <v>-0.01</v>
       </c>
       <c r="BG37" t="n">
-        <v>1.43</v>
+        <v>-0.01</v>
       </c>
     </row>
     <row r="38">
